--- a/Codigos/Data/instancias_paper/gr17.xlsx
+++ b/Codigos/Data/instancias_paper/gr17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\gamsdir\projdir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablogutierrezaguirre/Desktop/TSPJ_git/Codigos/Data/instancias_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8204BD-70AF-47B0-9824-448187284FD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2ADFDE5-6C7F-CB44-8A7E-ADC881EACCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{DBCDE681-8EFD-487F-9208-6866067142BF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="17620" activeTab="2" xr2:uid="{DBCDE681-8EFD-487F-9208-6866067142BF}"/>
   </bookViews>
   <sheets>
     <sheet name="BOUNDS" sheetId="10" r:id="rId1"/>
@@ -64,6 +64,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -187,9 +192,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -208,7 +212,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -506,13 +510,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FFAAB6-8576-4DCB-AC98-EA3D9234C241}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
@@ -523,7 +527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2340</v>
       </c>
@@ -548,34 +552,34 @@
       <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="25" max="25" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -589,7 +593,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -607,7 +611,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -619,7 +623,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -688,7 +692,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -760,7 +764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -826,7 +830,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -892,7 +896,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -958,7 +962,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1031,7 +1035,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1104,7 +1108,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1170,7 +1174,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1236,7 +1240,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1302,7 +1306,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1368,7 +1372,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1434,7 +1438,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1500,7 +1504,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1566,7 +1570,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>13</v>
       </c>
@@ -1629,7 +1633,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>14</v>
       </c>
@@ -1685,7 +1689,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>15</v>
       </c>
@@ -1741,7 +1745,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>16</v>
       </c>
@@ -1804,20 +1808,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986F5B19-C2B3-48EC-9516-08D20BAFEB82}">
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="27" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>0</v>
       </c>
@@ -1870,7 +1874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1925,17 +1929,8 @@
       <c r="R2">
         <v>121</v>
       </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1990,17 +1985,8 @@
       <c r="R3">
         <v>518</v>
       </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2055,17 +2041,8 @@
       <c r="R4">
         <v>142</v>
       </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2120,17 +2097,8 @@
       <c r="R5">
         <v>84</v>
       </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2185,17 +2153,8 @@
       <c r="R6">
         <v>297</v>
       </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2250,17 +2209,8 @@
       <c r="R7">
         <v>35</v>
       </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2315,17 +2265,8 @@
       <c r="R8">
         <v>29</v>
       </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2380,17 +2321,8 @@
       <c r="R9">
         <v>36</v>
       </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2445,17 +2377,8 @@
       <c r="R10">
         <v>236</v>
       </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2510,17 +2433,8 @@
       <c r="R11">
         <v>390</v>
       </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2575,17 +2489,8 @@
       <c r="R12">
         <v>238</v>
       </c>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2640,17 +2545,8 @@
       <c r="R13">
         <v>301</v>
       </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2705,17 +2601,8 @@
       <c r="R14">
         <v>55</v>
       </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2770,17 +2657,8 @@
       <c r="R15">
         <v>96</v>
       </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2835,17 +2713,8 @@
       <c r="R16">
         <v>153</v>
       </c>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2900,17 +2769,8 @@
       <c r="R17">
         <v>336</v>
       </c>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2965,267 +2825,6 @@
       <c r="R18">
         <v>0</v>
       </c>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3240,13 +2839,13 @@
       <selection activeCell="C3" sqref="C3:R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="53" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>0</v>
       </c>
@@ -3299,7 +2898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3355,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3411,7 +3010,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3467,7 +3066,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3523,7 +3122,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3579,7 +3178,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3635,7 +3234,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3691,7 +3290,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3747,7 +3346,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3803,7 +3402,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3859,7 +3458,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3915,7 +3514,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3971,7 +3570,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4027,7 +3626,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4083,7 +3682,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4139,7 +3738,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4195,7 +3794,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
